--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cd34-Sell.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cd34-Sell.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>83.2151208609977</v>
+        <v>129.2697763333333</v>
       </c>
       <c r="H2">
-        <v>83.2151208609977</v>
+        <v>387.809329</v>
       </c>
       <c r="I2">
-        <v>0.5072991601850404</v>
+        <v>0.6106530555301429</v>
       </c>
       <c r="J2">
-        <v>0.5072991601850404</v>
+        <v>0.6106530555301429</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>6.52355150852913</v>
+        <v>0.2554386666666666</v>
       </c>
       <c r="N2">
-        <v>6.52355150852913</v>
+        <v>0.766316</v>
       </c>
       <c r="O2">
-        <v>0.02458255828262532</v>
+        <v>0.0007909079353329646</v>
       </c>
       <c r="P2">
-        <v>0.02458255828262532</v>
+        <v>0.0007909079353329647</v>
       </c>
       <c r="Q2">
-        <v>542.8581272251954</v>
+        <v>33.02049930688489</v>
       </c>
       <c r="R2">
-        <v>542.8581272251954</v>
+        <v>297.184493761964</v>
       </c>
       <c r="S2">
-        <v>0.01247071117197563</v>
+        <v>0.0004829703473541115</v>
       </c>
       <c r="T2">
-        <v>0.01247071117197563</v>
+        <v>0.0004829703473541116</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>83.2151208609977</v>
+        <v>129.2697763333333</v>
       </c>
       <c r="H3">
-        <v>83.2151208609977</v>
+        <v>387.809329</v>
       </c>
       <c r="I3">
-        <v>0.5072991601850404</v>
+        <v>0.6106530555301429</v>
       </c>
       <c r="J3">
-        <v>0.5072991601850404</v>
+        <v>0.6106530555301429</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.47680559342688</v>
+        <v>50.24424533333334</v>
       </c>
       <c r="N3">
-        <v>7.47680559342688</v>
+        <v>150.732736</v>
       </c>
       <c r="O3">
-        <v>0.02817468506655764</v>
+        <v>0.1555699176538776</v>
       </c>
       <c r="P3">
-        <v>0.02817468506655764</v>
+        <v>0.1555699176538776</v>
       </c>
       <c r="Q3">
-        <v>622.1832811112014</v>
+        <v>6495.062356277128</v>
       </c>
       <c r="R3">
-        <v>622.1832811112014</v>
+        <v>58455.56120649415</v>
       </c>
       <c r="S3">
-        <v>0.01429299407274269</v>
+        <v>0.09499924556391307</v>
       </c>
       <c r="T3">
-        <v>0.01429299407274269</v>
+        <v>0.09499924556391307</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>83.2151208609977</v>
+        <v>129.2697763333333</v>
       </c>
       <c r="H4">
-        <v>83.2151208609977</v>
+        <v>387.809329</v>
       </c>
       <c r="I4">
-        <v>0.5072991601850404</v>
+        <v>0.6106530555301429</v>
       </c>
       <c r="J4">
-        <v>0.5072991601850404</v>
+        <v>0.6106530555301429</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>251.372816573784</v>
+        <v>14.97480166666667</v>
       </c>
       <c r="N4">
-        <v>251.372816573784</v>
+        <v>44.924405</v>
       </c>
       <c r="O4">
-        <v>0.947242756650817</v>
+        <v>0.04636607927357893</v>
       </c>
       <c r="P4">
-        <v>0.947242756650817</v>
+        <v>0.04636607927357893</v>
       </c>
       <c r="Q4">
-        <v>20918.01931235684</v>
+        <v>1935.789262086027</v>
       </c>
       <c r="R4">
-        <v>20918.01931235684</v>
+        <v>17422.10335877425</v>
       </c>
       <c r="S4">
-        <v>0.4805354549403221</v>
+        <v>0.0283135879813638</v>
       </c>
       <c r="T4">
-        <v>0.4805354549403221</v>
+        <v>0.02831358798136381</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>71.3630607386539</v>
+        <v>129.2697763333333</v>
       </c>
       <c r="H5">
-        <v>71.3630607386539</v>
+        <v>387.809329</v>
       </c>
       <c r="I5">
-        <v>0.4350461839913153</v>
+        <v>0.6106530555301429</v>
       </c>
       <c r="J5">
-        <v>0.4350461839913153</v>
+        <v>0.6106530555301429</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.52355150852913</v>
+        <v>257.4944153333333</v>
       </c>
       <c r="N5">
-        <v>6.52355150852913</v>
+        <v>772.483246</v>
       </c>
       <c r="O5">
-        <v>0.02458255828262532</v>
+        <v>0.7972730951372106</v>
       </c>
       <c r="P5">
-        <v>0.02458255828262532</v>
+        <v>0.7972730951372106</v>
       </c>
       <c r="Q5">
-        <v>465.5406025349016</v>
+        <v>33286.24547722244</v>
       </c>
       <c r="R5">
-        <v>465.5406025349016</v>
+        <v>299576.2092950019</v>
       </c>
       <c r="S5">
-        <v>0.01069454817360025</v>
+        <v>0.486857251637512</v>
       </c>
       <c r="T5">
-        <v>0.01069454817360025</v>
+        <v>0.486857251637512</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>71.3630607386539</v>
+        <v>72.02244833333333</v>
       </c>
       <c r="H6">
-        <v>71.3630607386539</v>
+        <v>216.067345</v>
       </c>
       <c r="I6">
-        <v>0.4350461839913153</v>
+        <v>0.3402243694466038</v>
       </c>
       <c r="J6">
-        <v>0.4350461839913153</v>
+        <v>0.3402243694466039</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>7.47680559342688</v>
+        <v>0.2554386666666666</v>
       </c>
       <c r="N6">
-        <v>7.47680559342688</v>
+        <v>0.766316</v>
       </c>
       <c r="O6">
-        <v>0.02817468506655764</v>
+        <v>0.0007909079353329646</v>
       </c>
       <c r="P6">
-        <v>0.02817468506655764</v>
+        <v>0.0007909079353329647</v>
       </c>
       <c r="Q6">
-        <v>533.5677316948296</v>
+        <v>18.39731817233555</v>
       </c>
       <c r="R6">
-        <v>533.5677316948296</v>
+        <v>165.57586355102</v>
       </c>
       <c r="S6">
-        <v>0.012257289223363</v>
+        <v>0.0002690861535889732</v>
       </c>
       <c r="T6">
-        <v>0.012257289223363</v>
+        <v>0.0002690861535889733</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>71.3630607386539</v>
+        <v>72.02244833333333</v>
       </c>
       <c r="H7">
-        <v>71.3630607386539</v>
+        <v>216.067345</v>
       </c>
       <c r="I7">
-        <v>0.4350461839913153</v>
+        <v>0.3402243694466038</v>
       </c>
       <c r="J7">
-        <v>0.4350461839913153</v>
+        <v>0.3402243694466039</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>251.372816573784</v>
+        <v>50.24424533333334</v>
       </c>
       <c r="N7">
-        <v>251.372816573784</v>
+        <v>150.732736</v>
       </c>
       <c r="O7">
-        <v>0.947242756650817</v>
+        <v>0.1555699176538776</v>
       </c>
       <c r="P7">
-        <v>0.947242756650817</v>
+        <v>0.1555699176538776</v>
       </c>
       <c r="Q7">
-        <v>17938.73357720145</v>
+        <v>3618.713563567325</v>
       </c>
       <c r="R7">
-        <v>17938.73357720145</v>
+        <v>32568.42207210592</v>
       </c>
       <c r="S7">
-        <v>0.4120943465943521</v>
+        <v>0.05292867713865058</v>
       </c>
       <c r="T7">
-        <v>0.4120943465943521</v>
+        <v>0.05292867713865058</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.198504895437178</v>
+        <v>72.02244833333333</v>
       </c>
       <c r="H8">
-        <v>0.198504895437178</v>
+        <v>216.067345</v>
       </c>
       <c r="I8">
-        <v>0.001210133034789566</v>
+        <v>0.3402243694466038</v>
       </c>
       <c r="J8">
-        <v>0.001210133034789566</v>
+        <v>0.3402243694466039</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.52355150852913</v>
+        <v>14.97480166666667</v>
       </c>
       <c r="N8">
-        <v>6.52355150852913</v>
+        <v>44.924405</v>
       </c>
       <c r="O8">
-        <v>0.02458255828262532</v>
+        <v>0.04636607927357893</v>
       </c>
       <c r="P8">
-        <v>0.02458255828262532</v>
+        <v>0.04636607927357893</v>
       </c>
       <c r="Q8">
-        <v>1.29495691007962</v>
+        <v>1078.521879339414</v>
       </c>
       <c r="R8">
-        <v>1.29495691007962</v>
+        <v>9706.696914054724</v>
       </c>
       <c r="S8">
-        <v>2.974816585744475E-05</v>
+        <v>0.01577487008456464</v>
       </c>
       <c r="T8">
-        <v>2.974816585744475E-05</v>
+        <v>0.01577487008456464</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.198504895437178</v>
+        <v>72.02244833333333</v>
       </c>
       <c r="H9">
-        <v>0.198504895437178</v>
+        <v>216.067345</v>
       </c>
       <c r="I9">
-        <v>0.001210133034789566</v>
+        <v>0.3402243694466038</v>
       </c>
       <c r="J9">
-        <v>0.001210133034789566</v>
+        <v>0.3402243694466039</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.47680559342688</v>
+        <v>257.4944153333333</v>
       </c>
       <c r="N9">
-        <v>7.47680559342688</v>
+        <v>772.483246</v>
       </c>
       <c r="O9">
-        <v>0.02817468506655764</v>
+        <v>0.7972730951372106</v>
       </c>
       <c r="P9">
-        <v>0.02817468506655764</v>
+        <v>0.7972730951372106</v>
       </c>
       <c r="Q9">
-        <v>1.48418251252731</v>
+        <v>18545.37822446687</v>
       </c>
       <c r="R9">
-        <v>1.48418251252731</v>
+        <v>166908.4040202019</v>
       </c>
       <c r="S9">
-        <v>3.409511714383366E-05</v>
+        <v>0.2712517360697996</v>
       </c>
       <c r="T9">
-        <v>3.409511714383366E-05</v>
+        <v>0.2712517360697997</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.198504895437178</v>
+        <v>0.2262363333333333</v>
       </c>
       <c r="H10">
-        <v>0.198504895437178</v>
+        <v>0.678709</v>
       </c>
       <c r="I10">
-        <v>0.001210133034789566</v>
+        <v>0.001068710042985603</v>
       </c>
       <c r="J10">
-        <v>0.001210133034789566</v>
+        <v>0.001068710042985603</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>251.372816573784</v>
+        <v>0.2554386666666666</v>
       </c>
       <c r="N10">
-        <v>251.372816573784</v>
+        <v>0.766316</v>
       </c>
       <c r="O10">
-        <v>0.947242756650817</v>
+        <v>0.0007909079353329646</v>
       </c>
       <c r="P10">
-        <v>0.947242756650817</v>
+        <v>0.0007909079353329647</v>
       </c>
       <c r="Q10">
-        <v>49.89873466972792</v>
+        <v>0.05778950733822222</v>
       </c>
       <c r="R10">
-        <v>49.89873466972792</v>
+        <v>0.520105566044</v>
       </c>
       <c r="S10">
-        <v>0.001146289751788287</v>
+        <v>8.45251253567347E-07</v>
       </c>
       <c r="T10">
-        <v>0.001146289751788287</v>
+        <v>8.452512535673471E-07</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.447113901992034</v>
+        <v>0.2262363333333333</v>
       </c>
       <c r="H11">
-        <v>0.447113901992034</v>
+        <v>0.678709</v>
       </c>
       <c r="I11">
-        <v>0.002725712642615704</v>
+        <v>0.001068710042985603</v>
       </c>
       <c r="J11">
-        <v>0.002725712642615704</v>
+        <v>0.001068710042985603</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.52355150852913</v>
+        <v>50.24424533333334</v>
       </c>
       <c r="N11">
-        <v>6.52355150852913</v>
+        <v>150.732736</v>
       </c>
       <c r="O11">
-        <v>0.02458255828262532</v>
+        <v>0.1555699176538776</v>
       </c>
       <c r="P11">
-        <v>0.02458255828262532</v>
+        <v>0.1555699176538776</v>
       </c>
       <c r="Q11">
-        <v>2.916770569824479</v>
+        <v>11.36707383531378</v>
       </c>
       <c r="R11">
-        <v>2.916770569824479</v>
+        <v>102.303664517824</v>
       </c>
       <c r="S11">
-        <v>6.700498989878924E-05</v>
+        <v>0.0001662591333831422</v>
       </c>
       <c r="T11">
-        <v>6.700498989878924E-05</v>
+        <v>0.0001662591333831422</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.447113901992034</v>
+        <v>0.2262363333333333</v>
       </c>
       <c r="H12">
-        <v>0.447113901992034</v>
+        <v>0.678709</v>
       </c>
       <c r="I12">
-        <v>0.002725712642615704</v>
+        <v>0.001068710042985603</v>
       </c>
       <c r="J12">
-        <v>0.002725712642615704</v>
+        <v>0.001068710042985603</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.47680559342688</v>
+        <v>14.97480166666667</v>
       </c>
       <c r="N12">
-        <v>7.47680559342688</v>
+        <v>44.924405</v>
       </c>
       <c r="O12">
-        <v>0.02817468506655764</v>
+        <v>0.04636607927357893</v>
       </c>
       <c r="P12">
-        <v>0.02817468506655764</v>
+        <v>0.04636607927357893</v>
       </c>
       <c r="Q12">
-        <v>3.342983723312957</v>
+        <v>3.387844221460556</v>
       </c>
       <c r="R12">
-        <v>3.342983723312957</v>
+        <v>30.490597993145</v>
       </c>
       <c r="S12">
-        <v>7.679609528763206E-05</v>
+        <v>4.95518945735404E-05</v>
       </c>
       <c r="T12">
-        <v>7.679609528763206E-05</v>
+        <v>4.955189457354041E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.447113901992034</v>
+        <v>0.2262363333333333</v>
       </c>
       <c r="H13">
-        <v>0.447113901992034</v>
+        <v>0.678709</v>
       </c>
       <c r="I13">
-        <v>0.002725712642615704</v>
+        <v>0.001068710042985603</v>
       </c>
       <c r="J13">
-        <v>0.002725712642615704</v>
+        <v>0.001068710042985603</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>251.372816573784</v>
+        <v>257.4944153333333</v>
       </c>
       <c r="N13">
-        <v>251.372816573784</v>
+        <v>772.483246</v>
       </c>
       <c r="O13">
-        <v>0.947242756650817</v>
+        <v>0.7972730951372106</v>
       </c>
       <c r="P13">
-        <v>0.947242756650817</v>
+        <v>0.7972730951372106</v>
       </c>
       <c r="Q13">
-        <v>112.3922808730324</v>
+        <v>58.25459237882378</v>
       </c>
       <c r="R13">
-        <v>112.3922808730324</v>
+        <v>524.2913314094141</v>
       </c>
       <c r="S13">
-        <v>0.002581911557429283</v>
+        <v>0.0008520537637753528</v>
       </c>
       <c r="T13">
-        <v>0.002581911557429283</v>
+        <v>0.0008520537637753528</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.21877928942318</v>
+        <v>0.4825293333333334</v>
       </c>
       <c r="H14">
-        <v>1.21877928942318</v>
+        <v>1.447588</v>
       </c>
       <c r="I14">
-        <v>0.007429968298767265</v>
+        <v>0.002279403741081145</v>
       </c>
       <c r="J14">
-        <v>0.007429968298767265</v>
+        <v>0.002279403741081145</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>6.52355150852913</v>
+        <v>0.2554386666666666</v>
       </c>
       <c r="N14">
-        <v>6.52355150852913</v>
+        <v>0.766316</v>
       </c>
       <c r="O14">
-        <v>0.02458255828262532</v>
+        <v>0.0007909079353329646</v>
       </c>
       <c r="P14">
-        <v>0.02458255828262532</v>
+        <v>0.0007909079353329647</v>
       </c>
       <c r="Q14">
-        <v>7.950769472080647</v>
+        <v>0.1232566495342222</v>
       </c>
       <c r="R14">
-        <v>7.950769472080647</v>
+        <v>1.109309845808</v>
       </c>
       <c r="S14">
-        <v>0.0001826476287425048</v>
+        <v>1.802798506648724E-06</v>
       </c>
       <c r="T14">
-        <v>0.0001826476287425048</v>
+        <v>1.802798506648724E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.21877928942318</v>
+        <v>0.4825293333333334</v>
       </c>
       <c r="H15">
-        <v>1.21877928942318</v>
+        <v>1.447588</v>
       </c>
       <c r="I15">
-        <v>0.007429968298767265</v>
+        <v>0.002279403741081145</v>
       </c>
       <c r="J15">
-        <v>0.007429968298767265</v>
+        <v>0.002279403741081145</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.47680559342688</v>
+        <v>50.24424533333334</v>
       </c>
       <c r="N15">
-        <v>7.47680559342688</v>
+        <v>150.732736</v>
       </c>
       <c r="O15">
-        <v>0.02817468506655764</v>
+        <v>0.1555699176538776</v>
       </c>
       <c r="P15">
-        <v>0.02817468506655764</v>
+        <v>0.1555699176538776</v>
       </c>
       <c r="Q15">
-        <v>9.112575808312069</v>
+        <v>24.24432220452978</v>
       </c>
       <c r="R15">
-        <v>9.112575808312069</v>
+        <v>218.198899840768</v>
       </c>
       <c r="S15">
-        <v>0.0002093370168722747</v>
+        <v>0.0003546066522999342</v>
       </c>
       <c r="T15">
-        <v>0.0002093370168722747</v>
+        <v>0.0003546066522999342</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.21877928942318</v>
+        <v>0.4825293333333334</v>
       </c>
       <c r="H16">
-        <v>1.21877928942318</v>
+        <v>1.447588</v>
       </c>
       <c r="I16">
-        <v>0.007429968298767265</v>
+        <v>0.002279403741081145</v>
       </c>
       <c r="J16">
-        <v>0.007429968298767265</v>
+        <v>0.002279403741081145</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>251.372816573784</v>
+        <v>14.97480166666667</v>
       </c>
       <c r="N16">
-        <v>251.372816573784</v>
+        <v>44.924405</v>
       </c>
       <c r="O16">
-        <v>0.947242756650817</v>
+        <v>0.04636607927357893</v>
       </c>
       <c r="P16">
-        <v>0.947242756650817</v>
+        <v>0.04636607927357893</v>
       </c>
       <c r="Q16">
-        <v>306.3679827640998</v>
+        <v>7.225781065015556</v>
       </c>
       <c r="R16">
-        <v>306.3679827640998</v>
+        <v>65.03202958514001</v>
       </c>
       <c r="S16">
-        <v>0.007037983653152485</v>
+        <v>0.0001056870145554607</v>
       </c>
       <c r="T16">
-        <v>0.007037983653152485</v>
+        <v>0.0001056870145554608</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.5930178308357</v>
+        <v>0.4825293333333334</v>
       </c>
       <c r="H17">
-        <v>7.5930178308357</v>
+        <v>1.447588</v>
       </c>
       <c r="I17">
-        <v>0.04628884184747196</v>
+        <v>0.002279403741081145</v>
       </c>
       <c r="J17">
-        <v>0.04628884184747196</v>
+        <v>0.002279403741081145</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.52355150852913</v>
+        <v>257.4944153333333</v>
       </c>
       <c r="N17">
-        <v>6.52355150852913</v>
+        <v>772.483246</v>
       </c>
       <c r="O17">
-        <v>0.02458255828262532</v>
+        <v>0.7972730951372106</v>
       </c>
       <c r="P17">
-        <v>0.02458255828262532</v>
+        <v>0.7972730951372106</v>
       </c>
       <c r="Q17">
-        <v>49.53344292463682</v>
+        <v>124.2486085678498</v>
       </c>
       <c r="R17">
-        <v>49.53344292463682</v>
+        <v>1118.237477110648</v>
       </c>
       <c r="S17">
-        <v>0.001137898152550705</v>
+        <v>0.001817307275719101</v>
       </c>
       <c r="T17">
-        <v>0.001137898152550705</v>
+        <v>0.001817307275719101</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.5930178308357</v>
+        <v>1.330635666666667</v>
       </c>
       <c r="H18">
-        <v>7.5930178308357</v>
+        <v>3.991907</v>
       </c>
       <c r="I18">
-        <v>0.04628884184747196</v>
+        <v>0.006285744113551653</v>
       </c>
       <c r="J18">
-        <v>0.04628884184747196</v>
+        <v>0.006285744113551654</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>7.47680559342688</v>
+        <v>0.2554386666666666</v>
       </c>
       <c r="N18">
-        <v>7.47680559342688</v>
+        <v>0.766316</v>
       </c>
       <c r="O18">
-        <v>0.02817468506655764</v>
+        <v>0.0007909079353329646</v>
       </c>
       <c r="P18">
-        <v>0.02817468506655764</v>
+        <v>0.0007909079353329647</v>
       </c>
       <c r="Q18">
-        <v>56.7715181885824</v>
+        <v>0.3398958005124444</v>
       </c>
       <c r="R18">
-        <v>56.7715181885824</v>
+        <v>3.059062204612</v>
       </c>
       <c r="S18">
-        <v>0.001304173541148217</v>
+        <v>4.971444898880473E-06</v>
       </c>
       <c r="T18">
-        <v>0.001304173541148217</v>
+        <v>4.971444898880475E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.330635666666667</v>
+      </c>
+      <c r="H19">
+        <v>3.991907</v>
+      </c>
+      <c r="I19">
+        <v>0.006285744113551653</v>
+      </c>
+      <c r="J19">
+        <v>0.006285744113551654</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>50.24424533333334</v>
+      </c>
+      <c r="N19">
+        <v>150.732736</v>
+      </c>
+      <c r="O19">
+        <v>0.1555699176538776</v>
+      </c>
+      <c r="P19">
+        <v>0.1555699176538776</v>
+      </c>
+      <c r="Q19">
+        <v>66.85678488528357</v>
+      </c>
+      <c r="R19">
+        <v>601.7110639675521</v>
+      </c>
+      <c r="S19">
+        <v>0.0009778726941385763</v>
+      </c>
+      <c r="T19">
+        <v>0.0009778726941385763</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.330635666666667</v>
+      </c>
+      <c r="H20">
+        <v>3.991907</v>
+      </c>
+      <c r="I20">
+        <v>0.006285744113551653</v>
+      </c>
+      <c r="J20">
+        <v>0.006285744113551654</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>14.97480166666667</v>
+      </c>
+      <c r="N20">
+        <v>44.924405</v>
+      </c>
+      <c r="O20">
+        <v>0.04636607927357893</v>
+      </c>
+      <c r="P20">
+        <v>0.04636607927357893</v>
+      </c>
+      <c r="Q20">
+        <v>19.92600519892611</v>
+      </c>
+      <c r="R20">
+        <v>179.334046790335</v>
+      </c>
+      <c r="S20">
+        <v>0.000291445309862368</v>
+      </c>
+      <c r="T20">
+        <v>0.0002914453098623681</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.330635666666667</v>
+      </c>
+      <c r="H21">
+        <v>3.991907</v>
+      </c>
+      <c r="I21">
+        <v>0.006285744113551653</v>
+      </c>
+      <c r="J21">
+        <v>0.006285744113551654</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>257.4944153333333</v>
+      </c>
+      <c r="N21">
+        <v>772.483246</v>
+      </c>
+      <c r="O21">
+        <v>0.7972730951372106</v>
+      </c>
+      <c r="P21">
+        <v>0.7972730951372106</v>
+      </c>
+      <c r="Q21">
+        <v>342.6312530100136</v>
+      </c>
+      <c r="R21">
+        <v>3083.681277090122</v>
+      </c>
+      <c r="S21">
+        <v>0.005011454664651828</v>
+      </c>
+      <c r="T21">
+        <v>0.005011454664651829</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>8.359407333333333</v>
+      </c>
+      <c r="H22">
+        <v>25.078222</v>
+      </c>
+      <c r="I22">
+        <v>0.03948871712563483</v>
+      </c>
+      <c r="J22">
+        <v>0.03948871712563483</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.2554386666666666</v>
+      </c>
+      <c r="N22">
+        <v>0.766316</v>
+      </c>
+      <c r="O22">
+        <v>0.0007909079353329646</v>
+      </c>
+      <c r="P22">
+        <v>0.0007909079353329647</v>
+      </c>
+      <c r="Q22">
+        <v>2.135315863350222</v>
+      </c>
+      <c r="R22">
+        <v>19.217842770152</v>
+      </c>
+      <c r="S22">
+        <v>3.123193973078332E-05</v>
+      </c>
+      <c r="T22">
+        <v>3.123193973078333E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>8.359407333333333</v>
+      </c>
+      <c r="H23">
+        <v>25.078222</v>
+      </c>
+      <c r="I23">
+        <v>0.03948871712563483</v>
+      </c>
+      <c r="J23">
+        <v>0.03948871712563483</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>50.24424533333334</v>
+      </c>
+      <c r="N23">
+        <v>150.732736</v>
+      </c>
+      <c r="O23">
+        <v>0.1555699176538776</v>
+      </c>
+      <c r="P23">
+        <v>0.1555699176538776</v>
+      </c>
+      <c r="Q23">
+        <v>420.0121128972658</v>
+      </c>
+      <c r="R23">
+        <v>3780.109016075392</v>
+      </c>
+      <c r="S23">
+        <v>0.006143256471492275</v>
+      </c>
+      <c r="T23">
+        <v>0.006143256471492275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>8.359407333333333</v>
+      </c>
+      <c r="H24">
+        <v>25.078222</v>
+      </c>
+      <c r="I24">
+        <v>0.03948871712563483</v>
+      </c>
+      <c r="J24">
+        <v>0.03948871712563483</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>14.97480166666667</v>
+      </c>
+      <c r="N24">
+        <v>44.924405</v>
+      </c>
+      <c r="O24">
+        <v>0.04636607927357893</v>
+      </c>
+      <c r="P24">
+        <v>0.04636607927357893</v>
+      </c>
+      <c r="Q24">
+        <v>125.1804668675455</v>
+      </c>
+      <c r="R24">
+        <v>1126.62420180791</v>
+      </c>
+      <c r="S24">
+        <v>0.001830936988659118</v>
+      </c>
+      <c r="T24">
+        <v>0.001830936988659119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>7.5930178308357</v>
-      </c>
-      <c r="H19">
-        <v>7.5930178308357</v>
-      </c>
-      <c r="I19">
-        <v>0.04628884184747196</v>
-      </c>
-      <c r="J19">
-        <v>0.04628884184747196</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>251.372816573784</v>
-      </c>
-      <c r="N19">
-        <v>251.372816573784</v>
-      </c>
-      <c r="O19">
-        <v>0.947242756650817</v>
-      </c>
-      <c r="P19">
-        <v>0.947242756650817</v>
-      </c>
-      <c r="Q19">
-        <v>1908.678278432134</v>
-      </c>
-      <c r="R19">
-        <v>1908.678278432134</v>
-      </c>
-      <c r="S19">
-        <v>0.04384677015377304</v>
-      </c>
-      <c r="T19">
-        <v>0.04384677015377304</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>8.359407333333333</v>
+      </c>
+      <c r="H25">
+        <v>25.078222</v>
+      </c>
+      <c r="I25">
+        <v>0.03948871712563483</v>
+      </c>
+      <c r="J25">
+        <v>0.03948871712563483</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>257.4944153333333</v>
+      </c>
+      <c r="N25">
+        <v>772.483246</v>
+      </c>
+      <c r="O25">
+        <v>0.7972730951372106</v>
+      </c>
+      <c r="P25">
+        <v>0.7972730951372106</v>
+      </c>
+      <c r="Q25">
+        <v>2152.500703829846</v>
+      </c>
+      <c r="R25">
+        <v>19372.50633446861</v>
+      </c>
+      <c r="S25">
+        <v>0.03148329172575266</v>
+      </c>
+      <c r="T25">
+        <v>0.03148329172575266</v>
       </c>
     </row>
   </sheetData>
